--- a/python/models/Regressors/results/links_per_species/Links_per_species.xlsx
+++ b/python/models/Regressors/results/links_per_species/Links_per_species.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkerkingfournier/Desktop/links_per_species/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkerkingfournier/Documents/Development/workspace/projects/Ecological-Inference/python/models/Regressors/results/links_per_species/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24320" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="12560" yWindow="460" windowWidth="11760" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1051,11 +1054,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1771457920"/>
-        <c:axId val="1771459696"/>
+        <c:axId val="-832591280"/>
+        <c:axId val="-792267264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1771457920"/>
+        <c:axId val="-832591280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,7 +1101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1771459696"/>
+        <c:crossAx val="-792267264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1106,7 +1109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1771459696"/>
+        <c:axId val="-792267264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1771457920"/>
+        <c:crossAx val="-832591280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2195,11 +2198,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1734566848"/>
-        <c:axId val="1735145008"/>
+        <c:axId val="-832869088"/>
+        <c:axId val="-795955120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1734566848"/>
+        <c:axId val="-832869088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1735145008"/>
+        <c:crossAx val="-795955120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2250,7 +2253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1735145008"/>
+        <c:axId val="-795955120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2300,7 +2303,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1734566848"/>
+        <c:crossAx val="-832869088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3498,15 +3501,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>263472</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>147127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>453972</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>54998</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3528,15 +3531,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>80075</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>68774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>168975</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>160902</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3556,6 +3559,1080 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>DNN Eval</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>CNN Eval</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>CNN-LSTM Eval</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>DNN train</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>CNN train</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>CNN-LSTM train</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>50</v>
+          </cell>
+          <cell r="B2">
+            <v>0.53204375505447299</v>
+          </cell>
+          <cell r="C2">
+            <v>0.211232230067253</v>
+          </cell>
+          <cell r="D2">
+            <v>9.8061256110668099E-2</v>
+          </cell>
+          <cell r="G2">
+            <v>50</v>
+          </cell>
+          <cell r="H2">
+            <v>0.43522590398788402</v>
+          </cell>
+          <cell r="I2">
+            <v>0.33945709466934199</v>
+          </cell>
+          <cell r="J2">
+            <v>7.4167937040328896E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>100</v>
+          </cell>
+          <cell r="B3">
+            <v>0.33724397420883101</v>
+          </cell>
+          <cell r="C3">
+            <v>0.30710279941558799</v>
+          </cell>
+          <cell r="D3">
+            <v>0.10262306779623</v>
+          </cell>
+          <cell r="G3">
+            <v>100</v>
+          </cell>
+          <cell r="H3">
+            <v>17.414243698120099</v>
+          </cell>
+          <cell r="I3">
+            <v>0.46861293911933899</v>
+          </cell>
+          <cell r="J3">
+            <v>0.74569422006607</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>150</v>
+          </cell>
+          <cell r="B4">
+            <v>0.27034902572631803</v>
+          </cell>
+          <cell r="C4">
+            <v>0.44752818346023499</v>
+          </cell>
+          <cell r="D4">
+            <v>0.29480621218681302</v>
+          </cell>
+          <cell r="G4">
+            <v>150</v>
+          </cell>
+          <cell r="H4">
+            <v>0.523626148700714</v>
+          </cell>
+          <cell r="I4">
+            <v>0.90730273723602295</v>
+          </cell>
+          <cell r="J4">
+            <v>0.14662502706050801</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>200</v>
+          </cell>
+          <cell r="B5">
+            <v>0.30833181738853399</v>
+          </cell>
+          <cell r="C5">
+            <v>0.20451648533344199</v>
+          </cell>
+          <cell r="D5">
+            <v>0.26747703552245999</v>
+          </cell>
+          <cell r="G5">
+            <v>200</v>
+          </cell>
+          <cell r="H5">
+            <v>0.90978062152862504</v>
+          </cell>
+          <cell r="I5">
+            <v>0.563016057014465</v>
+          </cell>
+          <cell r="J5">
+            <v>0.463485687971115</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>250</v>
+          </cell>
+          <cell r="B6">
+            <v>0.27081960439682001</v>
+          </cell>
+          <cell r="C6">
+            <v>0.34842732548713601</v>
+          </cell>
+          <cell r="D6">
+            <v>0.218933075666427</v>
+          </cell>
+          <cell r="G6">
+            <v>250</v>
+          </cell>
+          <cell r="H6">
+            <v>0.90846645832061701</v>
+          </cell>
+          <cell r="I6">
+            <v>0.59832561016082697</v>
+          </cell>
+          <cell r="J6">
+            <v>7.7362537384033203E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>300</v>
+          </cell>
+          <cell r="B7">
+            <v>0.26432618498802102</v>
+          </cell>
+          <cell r="C7">
+            <v>0.121763467788696</v>
+          </cell>
+          <cell r="D7">
+            <v>0.120715379714965</v>
+          </cell>
+          <cell r="G7">
+            <v>300</v>
+          </cell>
+          <cell r="H7">
+            <v>0.19480524957180001</v>
+          </cell>
+          <cell r="I7">
+            <v>0.469745993614196</v>
+          </cell>
+          <cell r="J7">
+            <v>5.0511017441749503E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>350</v>
+          </cell>
+          <cell r="B8">
+            <v>0.25199633836746199</v>
+          </cell>
+          <cell r="C8">
+            <v>0.110914491117</v>
+          </cell>
+          <cell r="D8">
+            <v>0.271549671888351</v>
+          </cell>
+          <cell r="G8">
+            <v>350</v>
+          </cell>
+          <cell r="H8">
+            <v>0.65945243835449197</v>
+          </cell>
+          <cell r="I8">
+            <v>0.158069223165512</v>
+          </cell>
+          <cell r="J8">
+            <v>0.16123490035533899</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>400</v>
+          </cell>
+          <cell r="B9">
+            <v>0.25217410922050398</v>
+          </cell>
+          <cell r="C9">
+            <v>0.145818620920181</v>
+          </cell>
+          <cell r="D9">
+            <v>0.14842519164085299</v>
+          </cell>
+          <cell r="G9">
+            <v>400</v>
+          </cell>
+          <cell r="H9">
+            <v>26.004356384277301</v>
+          </cell>
+          <cell r="I9">
+            <v>0.54442501068115201</v>
+          </cell>
+          <cell r="J9">
+            <v>5.2863873541355098E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>450</v>
+          </cell>
+          <cell r="B10">
+            <v>0.23290169239044101</v>
+          </cell>
+          <cell r="C10">
+            <v>0.162114813923835</v>
+          </cell>
+          <cell r="D10">
+            <v>5.6703001260757398E-2</v>
+          </cell>
+          <cell r="G10">
+            <v>450</v>
+          </cell>
+          <cell r="H10">
+            <v>165.71835327148401</v>
+          </cell>
+          <cell r="I10">
+            <v>0.36011251807212802</v>
+          </cell>
+          <cell r="J10">
+            <v>0.29275596141815102</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>500</v>
+          </cell>
+          <cell r="B11">
+            <v>0.22838981449604001</v>
+          </cell>
+          <cell r="C11">
+            <v>0.15289217233657801</v>
+          </cell>
+          <cell r="D11">
+            <v>0.183894708752632</v>
+          </cell>
+          <cell r="G11">
+            <v>500</v>
+          </cell>
+          <cell r="H11">
+            <v>0.88088834285735995</v>
+          </cell>
+          <cell r="I11">
+            <v>0.363123208284378</v>
+          </cell>
+          <cell r="J11">
+            <v>5.4172188043594298E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>550</v>
+          </cell>
+          <cell r="B12">
+            <v>0.223144546151161</v>
+          </cell>
+          <cell r="C12">
+            <v>0.19215139746665899</v>
+          </cell>
+          <cell r="D12">
+            <v>0.120064221322536</v>
+          </cell>
+          <cell r="G12">
+            <v>550</v>
+          </cell>
+          <cell r="H12">
+            <v>0.20638816058635701</v>
+          </cell>
+          <cell r="I12">
+            <v>0.45452079176902699</v>
+          </cell>
+          <cell r="J12">
+            <v>0.21101911365985801</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>600</v>
+          </cell>
+          <cell r="B13">
+            <v>0.220114335417747</v>
+          </cell>
+          <cell r="C13">
+            <v>0.48693585395812899</v>
+          </cell>
+          <cell r="D13">
+            <v>5.8884244412183699E-2</v>
+          </cell>
+          <cell r="G13">
+            <v>600</v>
+          </cell>
+          <cell r="H13">
+            <v>9.3929367065429599</v>
+          </cell>
+          <cell r="I13">
+            <v>9.4696313142776406E-2</v>
+          </cell>
+          <cell r="J13">
+            <v>0.40049484372138899</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>650</v>
+          </cell>
+          <cell r="B14">
+            <v>0.21763767302036199</v>
+          </cell>
+          <cell r="C14">
+            <v>0.11998114734888</v>
+          </cell>
+          <cell r="D14">
+            <v>0.15955035388469599</v>
+          </cell>
+          <cell r="G14">
+            <v>650</v>
+          </cell>
+          <cell r="H14">
+            <v>18.319349288940401</v>
+          </cell>
+          <cell r="I14">
+            <v>0.98127424716949396</v>
+          </cell>
+          <cell r="J14">
+            <v>7.9294428229331901E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>700</v>
+          </cell>
+          <cell r="B15">
+            <v>0.21473532915115301</v>
+          </cell>
+          <cell r="C15">
+            <v>0.111188314855098</v>
+          </cell>
+          <cell r="D15">
+            <v>0.12933394312858501</v>
+          </cell>
+          <cell r="G15">
+            <v>700</v>
+          </cell>
+          <cell r="H15">
+            <v>5.7908983230590803</v>
+          </cell>
+          <cell r="I15">
+            <v>0.115580022335052</v>
+          </cell>
+          <cell r="J15">
+            <v>7.7210120856761905E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>750</v>
+          </cell>
+          <cell r="B16">
+            <v>0.212693080306053</v>
+          </cell>
+          <cell r="C16">
+            <v>0.187988966703414</v>
+          </cell>
+          <cell r="D16">
+            <v>0.15092979371547699</v>
+          </cell>
+          <cell r="G16">
+            <v>750</v>
+          </cell>
+          <cell r="H16">
+            <v>0.452933609485626</v>
+          </cell>
+          <cell r="I16">
+            <v>0.60361886024475098</v>
+          </cell>
+          <cell r="J16">
+            <v>0.112755089998245</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>800</v>
+          </cell>
+          <cell r="B17">
+            <v>0.20936061441898299</v>
+          </cell>
+          <cell r="C17">
+            <v>0.13649010658264099</v>
+          </cell>
+          <cell r="D17">
+            <v>0.168144136667251</v>
+          </cell>
+          <cell r="G17">
+            <v>800</v>
+          </cell>
+          <cell r="H17">
+            <v>8.9508867263793892</v>
+          </cell>
+          <cell r="I17">
+            <v>0.50331044197082497</v>
+          </cell>
+          <cell r="J17">
+            <v>4.7321125864982598E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>850</v>
+          </cell>
+          <cell r="B18">
+            <v>0.21194896101951599</v>
+          </cell>
+          <cell r="C18">
+            <v>0.17310424149036399</v>
+          </cell>
+          <cell r="D18">
+            <v>0.14503505825996399</v>
+          </cell>
+          <cell r="G18">
+            <v>850</v>
+          </cell>
+          <cell r="H18">
+            <v>0.53655362129211404</v>
+          </cell>
+          <cell r="I18">
+            <v>0.17671810090541801</v>
+          </cell>
+          <cell r="J18">
+            <v>7.1032874286174705E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>900</v>
+          </cell>
+          <cell r="B19">
+            <v>0.205683723092079</v>
+          </cell>
+          <cell r="C19">
+            <v>0.13226756453514099</v>
+          </cell>
+          <cell r="D19">
+            <v>6.2123298645019497E-2</v>
+          </cell>
+          <cell r="G19">
+            <v>900</v>
+          </cell>
+          <cell r="H19">
+            <v>29.965213775634702</v>
+          </cell>
+          <cell r="I19">
+            <v>9.3572475016117096E-2</v>
+          </cell>
+          <cell r="J19">
+            <v>2.8612170368432999E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>950</v>
+          </cell>
+          <cell r="B20">
+            <v>0.20347440242767301</v>
+          </cell>
+          <cell r="C20">
+            <v>0.12903143465518899</v>
+          </cell>
+          <cell r="D20">
+            <v>9.7337596118450095E-2</v>
+          </cell>
+          <cell r="G20">
+            <v>950</v>
+          </cell>
+          <cell r="H20">
+            <v>0.75926083326339699</v>
+          </cell>
+          <cell r="I20">
+            <v>0.10398085415363301</v>
+          </cell>
+          <cell r="J20">
+            <v>4.7609787434339502E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>1000</v>
+          </cell>
+          <cell r="B21">
+            <v>0.20247551798820401</v>
+          </cell>
+          <cell r="C21">
+            <v>0.13956019282341001</v>
+          </cell>
+          <cell r="D21">
+            <v>7.5646489858627305E-2</v>
+          </cell>
+          <cell r="G21">
+            <v>1000</v>
+          </cell>
+          <cell r="H21">
+            <v>4.5844669342040998</v>
+          </cell>
+          <cell r="I21">
+            <v>4.6886224299669203E-2</v>
+          </cell>
+          <cell r="J21">
+            <v>5.12342602014541E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>1050</v>
+          </cell>
+          <cell r="B22">
+            <v>0.20131018757820099</v>
+          </cell>
+          <cell r="C22">
+            <v>8.1387914717197404E-2</v>
+          </cell>
+          <cell r="D22">
+            <v>6.5566971898078905E-2</v>
+          </cell>
+          <cell r="G22">
+            <v>1050</v>
+          </cell>
+          <cell r="H22">
+            <v>0.84867805242538397</v>
+          </cell>
+          <cell r="I22">
+            <v>0.13077229261398299</v>
+          </cell>
+          <cell r="J22">
+            <v>3.7657123059034299E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>1100</v>
+          </cell>
+          <cell r="B23">
+            <v>0.20035885274410201</v>
+          </cell>
+          <cell r="C23">
+            <v>0.122253492474555</v>
+          </cell>
+          <cell r="D23">
+            <v>0.166910246014595</v>
+          </cell>
+          <cell r="G23">
+            <v>1100</v>
+          </cell>
+          <cell r="H23">
+            <v>1.0977480411529501</v>
+          </cell>
+          <cell r="I23">
+            <v>9.9531568586826297E-2</v>
+          </cell>
+          <cell r="J23">
+            <v>0.124362662434577</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>1150</v>
+          </cell>
+          <cell r="B24">
+            <v>0.19897136092185899</v>
+          </cell>
+          <cell r="C24">
+            <v>0.16326935589313499</v>
+          </cell>
+          <cell r="D24">
+            <v>0.121990218758583</v>
+          </cell>
+          <cell r="G24">
+            <v>1150</v>
+          </cell>
+          <cell r="H24">
+            <v>0.74070155620574896</v>
+          </cell>
+          <cell r="I24">
+            <v>0.10645802319049801</v>
+          </cell>
+          <cell r="J24">
+            <v>0.20229293406009599</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>1200</v>
+          </cell>
+          <cell r="B25">
+            <v>0.19764675199985501</v>
+          </cell>
+          <cell r="C25">
+            <v>0.12852732837200101</v>
+          </cell>
+          <cell r="D25">
+            <v>0.115708209574222</v>
+          </cell>
+          <cell r="G25">
+            <v>1200</v>
+          </cell>
+          <cell r="H25">
+            <v>3.6694038659334099E-2</v>
+          </cell>
+          <cell r="I25">
+            <v>5.6355338543653398E-2</v>
+          </cell>
+          <cell r="J25">
+            <v>0.21155759692192</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>1250</v>
+          </cell>
+          <cell r="B26">
+            <v>0.196787118911743</v>
+          </cell>
+          <cell r="C26">
+            <v>9.2677101492881706E-2</v>
+          </cell>
+          <cell r="D26">
+            <v>0.26891303062438898</v>
+          </cell>
+          <cell r="G26">
+            <v>1250</v>
+          </cell>
+          <cell r="H26">
+            <v>0.46981641650199801</v>
+          </cell>
+          <cell r="I26">
+            <v>9.7193390130996704E-2</v>
+          </cell>
+          <cell r="J26">
+            <v>0.23428714275360099</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>1300</v>
+          </cell>
+          <cell r="B27">
+            <v>0.20008629560470501</v>
+          </cell>
+          <cell r="C27">
+            <v>0.11124680936336501</v>
+          </cell>
+          <cell r="D27">
+            <v>0.206136509776115</v>
+          </cell>
+          <cell r="G27">
+            <v>1300</v>
+          </cell>
+          <cell r="H27">
+            <v>56.655254364013601</v>
+          </cell>
+          <cell r="I27">
+            <v>6.3844971358775995E-2</v>
+          </cell>
+          <cell r="J27">
+            <v>0.25963896512985202</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>1350</v>
+          </cell>
+          <cell r="B28">
+            <v>0.20041817426681499</v>
+          </cell>
+          <cell r="C28">
+            <v>0.224005982279777</v>
+          </cell>
+          <cell r="D28">
+            <v>0.170828446745872</v>
+          </cell>
+          <cell r="G28">
+            <v>1350</v>
+          </cell>
+          <cell r="H28">
+            <v>1.14071345329284</v>
+          </cell>
+          <cell r="I28">
+            <v>0.315686255693435</v>
+          </cell>
+          <cell r="J28">
+            <v>2.10817232728004E-2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>1400</v>
+          </cell>
+          <cell r="B29">
+            <v>0.19938239455223</v>
+          </cell>
+          <cell r="C29">
+            <v>0.16263887286186199</v>
+          </cell>
+          <cell r="D29">
+            <v>0.195363759994506</v>
+          </cell>
+          <cell r="G29">
+            <v>1400</v>
+          </cell>
+          <cell r="H29">
+            <v>0.76882869005203203</v>
+          </cell>
+          <cell r="I29">
+            <v>0.26843044161796498</v>
+          </cell>
+          <cell r="J29">
+            <v>0.21228413283824901</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>1450</v>
+          </cell>
+          <cell r="B30">
+            <v>0.198933809995651</v>
+          </cell>
+          <cell r="C30">
+            <v>0.12669122219085599</v>
+          </cell>
+          <cell r="D30">
+            <v>0.24371115863323201</v>
+          </cell>
+          <cell r="G30">
+            <v>1450</v>
+          </cell>
+          <cell r="H30">
+            <v>1.14257920358795E-4</v>
+          </cell>
+          <cell r="I30">
+            <v>0.26187911629676802</v>
+          </cell>
+          <cell r="J30">
+            <v>0.34289672970771701</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>1500</v>
+          </cell>
+          <cell r="B31">
+            <v>0.197531849145889</v>
+          </cell>
+          <cell r="C31">
+            <v>0.10793809592723801</v>
+          </cell>
+          <cell r="D31">
+            <v>7.6102294027805301E-2</v>
+          </cell>
+          <cell r="G31">
+            <v>1500</v>
+          </cell>
+          <cell r="H31">
+            <v>0.124952472746372</v>
+          </cell>
+          <cell r="I31">
+            <v>2.6220206171274098E-2</v>
+          </cell>
+          <cell r="J31">
+            <v>4.9789890646934502E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>1550</v>
+          </cell>
+          <cell r="B32">
+            <v>0.197882920503616</v>
+          </cell>
+          <cell r="C32">
+            <v>0.15001288056373499</v>
+          </cell>
+          <cell r="D32">
+            <v>8.6399994790554005E-2</v>
+          </cell>
+          <cell r="G32">
+            <v>1550</v>
+          </cell>
+          <cell r="H32">
+            <v>0.71182829141616799</v>
+          </cell>
+          <cell r="I32">
+            <v>5.08288294076919E-2</v>
+          </cell>
+          <cell r="J32">
+            <v>0.37491303682327198</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>1600</v>
+          </cell>
+          <cell r="B33">
+            <v>0.19662006199359799</v>
+          </cell>
+          <cell r="C33">
+            <v>9.7857698798179599E-2</v>
+          </cell>
+          <cell r="D33">
+            <v>9.5810472965240395E-2</v>
+          </cell>
+          <cell r="G33">
+            <v>1600</v>
+          </cell>
+          <cell r="H33">
+            <v>9.2646948993205996E-2</v>
+          </cell>
+          <cell r="I33">
+            <v>6.2306821346282897E-2</v>
+          </cell>
+          <cell r="J33">
+            <v>6.5784104168415E-2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>1650</v>
+          </cell>
+          <cell r="B34">
+            <v>0.19431681931018799</v>
+          </cell>
+          <cell r="C34">
+            <v>0.10386188328266099</v>
+          </cell>
+          <cell r="D34">
+            <v>9.3544065952300998E-2</v>
+          </cell>
+          <cell r="G34">
+            <v>1650</v>
+          </cell>
+          <cell r="H34">
+            <v>18.2630100250244</v>
+          </cell>
+          <cell r="I34">
+            <v>0.19242133200168601</v>
+          </cell>
+          <cell r="J34">
+            <v>0.11430028080940199</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>1700</v>
+          </cell>
+          <cell r="B35">
+            <v>0.193856656551361</v>
+          </cell>
+          <cell r="C35">
+            <v>8.9148506522178594E-2</v>
+          </cell>
+          <cell r="D35">
+            <v>0.166434451937675</v>
+          </cell>
+          <cell r="G35">
+            <v>1700</v>
+          </cell>
+          <cell r="H35">
+            <v>0.11498698592185901</v>
+          </cell>
+          <cell r="I35">
+            <v>0.37605479359626698</v>
+          </cell>
+          <cell r="J35">
+            <v>0.120815202593803</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>1750</v>
+          </cell>
+          <cell r="B36">
+            <v>0.192164257168769</v>
+          </cell>
+          <cell r="C36">
+            <v>7.9519651830196297E-2</v>
+          </cell>
+          <cell r="D36">
+            <v>9.0119406580924905E-2</v>
+          </cell>
+          <cell r="G36">
+            <v>1750</v>
+          </cell>
+          <cell r="H36">
+            <v>0.40234836935996998</v>
+          </cell>
+          <cell r="I36">
+            <v>0.15945746004581399</v>
+          </cell>
+          <cell r="J36">
+            <v>7.6554134488105705E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>1800</v>
+          </cell>
+          <cell r="B37">
+            <v>0.190605834126472</v>
+          </cell>
+          <cell r="C37">
+            <v>0.25366541743278498</v>
+          </cell>
+          <cell r="D37">
+            <v>0.130048602819442</v>
+          </cell>
+          <cell r="G37">
+            <v>1800</v>
+          </cell>
+          <cell r="H37">
+            <v>3.38920531794428E-3</v>
+          </cell>
+          <cell r="I37">
+            <v>8.3335466682910905E-2</v>
+          </cell>
+          <cell r="J37">
+            <v>0.153916746377944</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>1850</v>
+          </cell>
+          <cell r="B38">
+            <v>0.190422654151916</v>
+          </cell>
+          <cell r="C38">
+            <v>9.05506387352943E-2</v>
+          </cell>
+          <cell r="D38">
+            <v>0.121795430779457</v>
+          </cell>
+          <cell r="G38">
+            <v>1850</v>
+          </cell>
+          <cell r="H38">
+            <v>2.7561541646718901E-3</v>
+          </cell>
+          <cell r="I38">
+            <v>0.13021069765090901</v>
+          </cell>
+          <cell r="J38">
+            <v>0.16181552410125699</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>1900</v>
+          </cell>
+          <cell r="B39">
+            <v>0.18765099346637701</v>
+          </cell>
+          <cell r="C39">
+            <v>9.0490669012069702E-2</v>
+          </cell>
+          <cell r="D39">
+            <v>0.14224481582641599</v>
+          </cell>
+          <cell r="G39">
+            <v>1900</v>
+          </cell>
+          <cell r="H39">
+            <v>28.8460273742675</v>
+          </cell>
+          <cell r="I39">
+            <v>5.3807660937309203E-2</v>
+          </cell>
+          <cell r="J39">
+            <v>7.18064084649086E-2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>1950</v>
+          </cell>
+          <cell r="B40">
+            <v>0.186991602182388</v>
+          </cell>
+          <cell r="C40">
+            <v>8.3025172352790805E-2</v>
+          </cell>
+          <cell r="D40">
+            <v>0.16830740869045199</v>
+          </cell>
+          <cell r="G40">
+            <v>1950</v>
+          </cell>
+          <cell r="H40">
+            <v>0.689159095287323</v>
+          </cell>
+          <cell r="I40">
+            <v>0.285132646560668</v>
+          </cell>
+          <cell r="J40">
+            <v>0.45277836918830799</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>2000</v>
+          </cell>
+          <cell r="B41">
+            <v>0.18578091263770999</v>
+          </cell>
+          <cell r="C41">
+            <v>0.17157346010208099</v>
+          </cell>
+          <cell r="D41">
+            <v>0.13091319799423201</v>
+          </cell>
+          <cell r="G41">
+            <v>2000</v>
+          </cell>
+          <cell r="H41">
+            <v>0.66780418157577504</v>
+          </cell>
+          <cell r="I41">
+            <v>0.233920648694038</v>
+          </cell>
+          <cell r="J41">
+            <v>5.8230932801961899E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3821,10 +4898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" zoomScalePageLayoutView="59" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4913,6 +5990,26 @@
         <v>7.1474462747573797E-2</v>
       </c>
     </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <f>MIN(B2:B41)</f>
+        <v>0.18075555562973</v>
+      </c>
+      <c r="C45">
+        <f>MIN(C2:C42)</f>
+        <v>4.4264875352382597E-2</v>
+      </c>
+      <c r="D45">
+        <f>MIN(D2:D40)</f>
+        <v>3.8216162472963298E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <f>AVERAGE(B45:D45)</f>
+        <v>8.7745531151691966E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
